--- a/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1329151216657167</v>
+        <v>0.1329151216657166</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1666102544948934</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.105733081758569</v>
+        <v>0.1037528950192265</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1350269588442251</v>
+        <v>0.1393397706090624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1280472827773206</v>
+        <v>0.1297267047271581</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1628110726818703</v>
+        <v>0.1659235392695342</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1938989868071282</v>
+        <v>0.1972940176681155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1718726963150922</v>
+        <v>0.1713188286115629</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1099847363792786</v>
+        <v>0.1099847363792785</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1753040938878768</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08362324293591737</v>
+        <v>0.08553473501425225</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1446037032823722</v>
+        <v>0.1454912269006996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1201010726888738</v>
+        <v>0.12184764652366</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1423492663133609</v>
+        <v>0.1431515664450715</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2078533568584833</v>
+        <v>0.2096387135383643</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1645048999392365</v>
+        <v>0.1628519975124725</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1532594912148677</v>
+        <v>0.1532594912148678</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.266029534003223</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1228789206857491</v>
+        <v>0.1225260272048455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.219622365331451</v>
+        <v>0.2147145583523253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1579076917245234</v>
+        <v>0.1605844998671358</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1910486206031032</v>
+        <v>0.1883052738954817</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3206598913306055</v>
+        <v>0.3229809657243868</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2161447655272639</v>
+        <v>0.2197460761444203</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1283239849516813</v>
+        <v>0.1283729847782779</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1544405637635392</v>
+        <v>0.1546170213220184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1454953542213241</v>
+        <v>0.1458541642305015</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1709472067589437</v>
+        <v>0.1694442206041075</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1998562104396897</v>
+        <v>0.2007414364523741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1774270988170899</v>
+        <v>0.1775662303254722</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09147360790905459</v>
+        <v>0.09083201860679607</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.245276588008353</v>
+        <v>0.2449511204286733</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1865295790336948</v>
+        <v>0.1890115851971395</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.143144489307143</v>
+        <v>0.1462788941324211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2960951910684547</v>
+        <v>0.2963517093033976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2264030156406072</v>
+        <v>0.2280903916343685</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03984079349968214</v>
+        <v>0.03899921427681478</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1897943506519443</v>
+        <v>0.1928469944860716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1643002038891197</v>
+        <v>0.1637689347744694</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1564840746877053</v>
+        <v>0.1434456411786005</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.238809922808552</v>
+        <v>0.2404616628588882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2099197861241889</v>
+        <v>0.2098385959481971</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1194104647871964</v>
+        <v>0.1203852619676874</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2003128553580173</v>
+        <v>0.1990998018244862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1625744827065639</v>
+        <v>0.163894121261543</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1427669551308325</v>
+        <v>0.1450026427717938</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2221565475245617</v>
+        <v>0.2212978920013877</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1793979653012794</v>
+        <v>0.1809855128623387</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>58219</v>
+        <v>57128</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65949</v>
+        <v>68055</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>133045</v>
+        <v>134790</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>89647</v>
+        <v>91360</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94702</v>
+        <v>96361</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>178581</v>
+        <v>178005</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40408</v>
+        <v>41331</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>61188</v>
+        <v>61564</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108854</v>
+        <v>110437</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>68785</v>
+        <v>69173</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>87952</v>
+        <v>88707</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>149100</v>
+        <v>147602</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57951</v>
+        <v>57785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41179</v>
+        <v>40258</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>104078</v>
+        <v>105843</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90101</v>
+        <v>88807</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60123</v>
+        <v>60558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>142463</v>
+        <v>144837</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>145243</v>
+        <v>145298</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>133006</v>
+        <v>133158</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>289980</v>
+        <v>290695</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>193485</v>
+        <v>191784</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>172118</v>
+        <v>172881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>353622</v>
+        <v>353899</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51954</v>
+        <v>51589</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>203788</v>
+        <v>203518</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>260920</v>
+        <v>264392</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81301</v>
+        <v>83081</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>246011</v>
+        <v>246224</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>316696</v>
+        <v>319056</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9451</v>
+        <v>9252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>160240</v>
+        <v>162817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>177692</v>
+        <v>177118</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>37122</v>
+        <v>34029</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>201623</v>
+        <v>203017</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>227030</v>
+        <v>226942</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>411068</v>
+        <v>414423</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>728216</v>
+        <v>723806</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1150681</v>
+        <v>1160021</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>491472</v>
+        <v>499168</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>807626</v>
+        <v>804505</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1269755</v>
+        <v>1280992</v>
       </c>
     </row>
     <row r="32">
